--- a/data/trans_orig/POLIPATOLOGIA_Lim_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_2-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>52390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39514</v>
+        <v>39966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68350</v>
+        <v>69540</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1198286033829733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09037743798025398</v>
+        <v>0.09141159620584156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1563319014407176</v>
+        <v>0.1590545609987082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -764,19 +764,19 @@
         <v>37529</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26961</v>
+        <v>28116</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50282</v>
+        <v>50726</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1193479826347693</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08573759410636092</v>
+        <v>0.08941053417915859</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.159901828025405</v>
+        <v>0.161313468933115</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -785,19 +785,19 @@
         <v>89920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73005</v>
+        <v>72093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109176</v>
+        <v>108724</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1196275387701787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09712444757006453</v>
+        <v>0.09591098316646741</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.145245344870704</v>
+        <v>0.1446439926898676</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>384821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>368861</v>
+        <v>367671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>397697</v>
+        <v>397245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8801713966170267</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8436680985592825</v>
+        <v>0.8409454390012914</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.909622562019746</v>
+        <v>0.9085884037941583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -835,19 +835,19 @@
         <v>276925</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>264172</v>
+        <v>263728</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>287493</v>
+        <v>286338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8806520173652307</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8400981719745952</v>
+        <v>0.8386865310668848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9142624058936393</v>
+        <v>0.9105894658208413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>605</v>
@@ -856,19 +856,19 @@
         <v>661745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>642489</v>
+        <v>642941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>678660</v>
+        <v>679572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8803724612298213</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.854754655129296</v>
+        <v>0.8553560073101325</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9028755524299354</v>
+        <v>0.9040890168335326</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>56324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42125</v>
+        <v>42460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73205</v>
+        <v>74275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.134490032749787</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1005847562237915</v>
+        <v>0.1013856155655381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1747971106320452</v>
+        <v>0.1773542830870612</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -981,19 +981,19 @@
         <v>64279</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51126</v>
+        <v>49046</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80356</v>
+        <v>79552</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1901685130573605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1512551320625834</v>
+        <v>0.1451018822021473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2377304719003053</v>
+        <v>0.2353535690082494</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -1002,19 +1002,19 @@
         <v>120603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99582</v>
+        <v>100433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143216</v>
+        <v>143421</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1593575591153858</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1315817121160236</v>
+        <v>0.1327064682088544</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1892371809327147</v>
+        <v>0.189507341651045</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>362473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345592</v>
+        <v>344522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376672</v>
+        <v>376337</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.865509967250213</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8252028893679547</v>
+        <v>0.8226457169129388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8994152437762084</v>
+        <v>0.8986143844344617</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>247</v>
@@ -1052,19 +1052,19 @@
         <v>273732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>257655</v>
+        <v>258459</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>286885</v>
+        <v>288965</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8098314869426395</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7622695280996947</v>
+        <v>0.7646464309917506</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8487448679374167</v>
+        <v>0.8548981177978527</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>574</v>
@@ -1073,19 +1073,19 @@
         <v>636205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>613592</v>
+        <v>613387</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>657226</v>
+        <v>656375</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8406424408846143</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8107628190672854</v>
+        <v>0.810492658348955</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8684182878839766</v>
+        <v>0.8672935317911458</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>140775</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120827</v>
+        <v>119681</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166076</v>
+        <v>164881</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2236599047666905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1919669785963027</v>
+        <v>0.1901469061874828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2638578530104632</v>
+        <v>0.2619586201475361</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1198,19 +1198,19 @@
         <v>74922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60962</v>
+        <v>60369</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90882</v>
+        <v>90404</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2880172796854595</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.234353051362946</v>
+        <v>0.2320721155083043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3493740347148012</v>
+        <v>0.3475333622182826</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>196</v>
@@ -1219,19 +1219,19 @@
         <v>215697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>189425</v>
+        <v>191079</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244085</v>
+        <v>243108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2424799322797309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2129462402023487</v>
+        <v>0.21480557502437</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2743936051646542</v>
+        <v>0.27329489102495</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>488640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463339</v>
+        <v>464534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508588</v>
+        <v>509734</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7763400952333095</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7361421469895368</v>
+        <v>0.7380413798524638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8080330214036971</v>
+        <v>0.809853093812517</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>175</v>
@@ -1269,19 +1269,19 @@
         <v>185207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169247</v>
+        <v>169725</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>199167</v>
+        <v>199760</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7119827203145405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6506259652851989</v>
+        <v>0.6524666377817174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7656469486370538</v>
+        <v>0.7679278844916957</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>639</v>
@@ -1290,19 +1290,19 @@
         <v>673847</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645459</v>
+        <v>646436</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>700119</v>
+        <v>698465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7575200677202691</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7256063948353459</v>
+        <v>0.7267051089750501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7870537597976514</v>
+        <v>0.7851944249756301</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>228375</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>202401</v>
+        <v>202942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>256243</v>
+        <v>259431</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1970433894878564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1746331538572306</v>
+        <v>0.1750995518333267</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2210878926947217</v>
+        <v>0.2238384521330853</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -1415,19 +1415,19 @@
         <v>159807</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137601</v>
+        <v>138729</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182031</v>
+        <v>185818</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2084462152591584</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1794819010415884</v>
+        <v>0.1809536743660319</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2374341424721671</v>
+        <v>0.2423741537173786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>360</v>
@@ -1436,19 +1436,19 @@
         <v>388182</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>353505</v>
+        <v>352179</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>424421</v>
+        <v>422910</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2015831477325676</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1835751029477295</v>
+        <v>0.1828866052574578</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2204020206835801</v>
+        <v>0.2196176638940814</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>930634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>902766</v>
+        <v>899578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>956608</v>
+        <v>956067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8029566105121435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7789121073052783</v>
+        <v>0.7761615478669144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8253668461427692</v>
+        <v>0.8249004481666733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>564</v>
@@ -1486,19 +1486,19 @@
         <v>606850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>584626</v>
+        <v>580839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>629056</v>
+        <v>627928</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7915537847408416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7625658575278328</v>
+        <v>0.7576258462826214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8205180989584111</v>
+        <v>0.8190463256339675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1434</v>
@@ -1507,19 +1507,19 @@
         <v>1537485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1501246</v>
+        <v>1502757</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1572162</v>
+        <v>1573488</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7984168522674324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7795979793164199</v>
+        <v>0.7803823361059189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8164248970522706</v>
+        <v>0.8171133947425423</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>94555</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78028</v>
+        <v>77305</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113606</v>
+        <v>113558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1851858084290781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1528171844659138</v>
+        <v>0.1514007451002721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2224970043771863</v>
+        <v>0.222403281867446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>262</v>
@@ -1632,19 +1632,19 @@
         <v>281204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>255687</v>
+        <v>257264</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>309907</v>
+        <v>310032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3692661826806717</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3357577938002372</v>
+        <v>0.337829269684555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4069570381895176</v>
+        <v>0.4071209522330043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>350</v>
@@ -1653,19 +1653,19 @@
         <v>375759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>341745</v>
+        <v>345643</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411110</v>
+        <v>410547</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2953809331894966</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2686422702323626</v>
+        <v>0.2717065747440852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3231698326911788</v>
+        <v>0.3227270709503701</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>416041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>396990</v>
+        <v>397038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>432568</v>
+        <v>433291</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8148141915709219</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7775029956228137</v>
+        <v>0.7775967181325539</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8471828155340864</v>
+        <v>0.8485992548997281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>441</v>
@@ -1703,19 +1703,19 @@
         <v>480318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>451615</v>
+        <v>451490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>505835</v>
+        <v>504258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6307338173193283</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5930429618104824</v>
+        <v>0.5928790477669958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.664242206199763</v>
+        <v>0.6621707303154452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>840</v>
@@ -1724,19 +1724,19 @@
         <v>896359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>861008</v>
+        <v>861571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>930373</v>
+        <v>926475</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7046190668105035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6768301673088212</v>
+        <v>0.6772729290496297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7313577297676374</v>
+        <v>0.7282934252559148</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>8176</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3125</v>
+        <v>3041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17622</v>
+        <v>17920</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03063640013780726</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01170908136479594</v>
+        <v>0.01139425211095126</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06602839486494461</v>
+        <v>0.06714451707446646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>389</v>
@@ -1849,19 +1849,19 @@
         <v>418736</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>388274</v>
+        <v>384853</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>452233</v>
+        <v>449762</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3774599428253612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3500011066817004</v>
+        <v>0.34691767868004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4076556084179991</v>
+        <v>0.4054276732473434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>395</v>
@@ -1870,19 +1870,19 @@
         <v>426912</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>391899</v>
+        <v>394620</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>462468</v>
+        <v>460221</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3102032189344781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2847620144988112</v>
+        <v>0.2867394597199385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3360393291721788</v>
+        <v>0.3344064211074939</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>258706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249260</v>
+        <v>248962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263757</v>
+        <v>263841</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9693635998621928</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9339716051350553</v>
+        <v>0.9328554829255332</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.988290918635204</v>
+        <v>0.9886057478890488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>655</v>
@@ -1920,19 +1920,19 @@
         <v>690615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>657118</v>
+        <v>659589</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>721077</v>
+        <v>724498</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6225400571746388</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5923443915820009</v>
+        <v>0.5945723267526561</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6499988933182996</v>
+        <v>0.6530823213199597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>914</v>
@@ -1941,19 +1941,19 @@
         <v>949321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>913765</v>
+        <v>916012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>984334</v>
+        <v>981613</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.689796781065522</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6639606708278213</v>
+        <v>0.6655935788925061</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7152379855011888</v>
+        <v>0.7132605402800616</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>580596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>536638</v>
+        <v>539166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>630961</v>
+        <v>632928</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1696701061912608</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1568242401064175</v>
+        <v>0.1575629518154777</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1843885415923031</v>
+        <v>0.1849634405555491</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>960</v>
@@ -2066,19 +2066,19 @@
         <v>1036477</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>980946</v>
+        <v>979242</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1093005</v>
+        <v>1092301</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.291955075870115</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2763132242154371</v>
+        <v>0.2758330183933116</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3078778856197055</v>
+        <v>0.3076795011772002</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1489</v>
@@ -2087,19 +2087,19 @@
         <v>1617073</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1544316</v>
+        <v>1550844</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1692409</v>
+        <v>1688372</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2319369975946081</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2215015321937877</v>
+        <v>0.2224377718626959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2427424819866145</v>
+        <v>0.2421633857571245</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>2841314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2790949</v>
+        <v>2788982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2885272</v>
+        <v>2882744</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8303298938087392</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8156114584076969</v>
+        <v>0.8150365594444509</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8431757598935825</v>
+        <v>0.8424370481845223</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2330</v>
@@ -2137,19 +2137,19 @@
         <v>2513648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2457120</v>
+        <v>2457824</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2569179</v>
+        <v>2570883</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.708044924129885</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6921221143802946</v>
+        <v>0.6923204988227998</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7236867757845631</v>
+        <v>0.7241669816066884</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5006</v>
@@ -2158,19 +2158,19 @@
         <v>5354962</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5279626</v>
+        <v>5283663</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5427719</v>
+        <v>5421191</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7680630024053918</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7572575180133857</v>
+        <v>0.7578366142428756</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7784984678062126</v>
+        <v>0.7775622281373042</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>52401</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39182</v>
+        <v>39515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66935</v>
+        <v>67980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1221214481491803</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09131321263030238</v>
+        <v>0.09208908767587459</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1559918945517228</v>
+        <v>0.1584278888398174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -2525,19 +2525,19 @@
         <v>47508</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34556</v>
+        <v>36630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61875</v>
+        <v>61412</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1368890126151935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0995700453330091</v>
+        <v>0.1055438417558906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1782847455950851</v>
+        <v>0.1769509038664412</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -2546,19 +2546,19 @@
         <v>99909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81046</v>
+        <v>78541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120096</v>
+        <v>119576</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1287247800614489</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1044209956895469</v>
+        <v>0.1011928250761272</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1547331433875203</v>
+        <v>0.1540635667820195</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>376691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>362157</v>
+        <v>361112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389910</v>
+        <v>389577</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8778785518508196</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8440081054482772</v>
+        <v>0.8415721111601824</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9086867873696977</v>
+        <v>0.9079109123241255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -2596,19 +2596,19 @@
         <v>299547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285180</v>
+        <v>285643</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312499</v>
+        <v>310425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8631109873848065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8217152544049147</v>
+        <v>0.8230490961335588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9004299546669907</v>
+        <v>0.8944561582441093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>637</v>
@@ -2617,19 +2617,19 @@
         <v>676238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>656051</v>
+        <v>656571</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>695101</v>
+        <v>697606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8712752199385511</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8452668566124797</v>
+        <v>0.8459364332179805</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.895579004310453</v>
+        <v>0.8988071749238727</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>44842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31555</v>
+        <v>33233</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58792</v>
+        <v>59762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1188739949130335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08364927867108984</v>
+        <v>0.08809729732389394</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1558518383581603</v>
+        <v>0.1584239210114713</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -2742,19 +2742,19 @@
         <v>53903</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39388</v>
+        <v>41077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69097</v>
+        <v>70583</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1447951834898142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1058046809876965</v>
+        <v>0.1103403932716619</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1856081830827843</v>
+        <v>0.1895990659432268</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -2763,19 +2763,19 @@
         <v>98746</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81434</v>
+        <v>79586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120904</v>
+        <v>122143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.131748927803706</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1086511554993108</v>
+        <v>0.1061852337920451</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1613131931186056</v>
+        <v>0.1629663792626178</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>332385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>318435</v>
+        <v>317465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>345672</v>
+        <v>343994</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8811260050869665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8441481616418399</v>
+        <v>0.8415760789885287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9163507213289102</v>
+        <v>0.9119027026761061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>304</v>
@@ -2813,19 +2813,19 @@
         <v>318370</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>303176</v>
+        <v>301690</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332885</v>
+        <v>331196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8552048165101859</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8143918169172157</v>
+        <v>0.8104009340567732</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8941953190123035</v>
+        <v>0.889659606728338</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>616</v>
@@ -2834,19 +2834,19 @@
         <v>650754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>628596</v>
+        <v>627357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>668066</v>
+        <v>669914</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8682510721962939</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8386868068813943</v>
+        <v>0.8370336207373822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8913488445006892</v>
+        <v>0.8938147662079549</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>84965</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68156</v>
+        <v>70893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102095</v>
+        <v>103356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1627948040739052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1305881726232709</v>
+        <v>0.1358330429250675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1956169029121483</v>
+        <v>0.198033007735959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -2959,19 +2959,19 @@
         <v>52599</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39506</v>
+        <v>40562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65920</v>
+        <v>65735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3166257920718586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2378127744935261</v>
+        <v>0.2441675496125375</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3968164758539994</v>
+        <v>0.3957021980213358</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -2980,19 +2980,19 @@
         <v>137564</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118865</v>
+        <v>116602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159896</v>
+        <v>160099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1999364895502666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1727602129730225</v>
+        <v>0.1694713596111969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2323943576789727</v>
+        <v>0.2326904583454283</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>436949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>419819</v>
+        <v>418558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453758</v>
+        <v>451021</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8372051959260948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8043830970878521</v>
+        <v>0.8019669922640407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8694118273767294</v>
+        <v>0.8641669570749324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>109</v>
@@ -3030,19 +3030,19 @@
         <v>113524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100203</v>
+        <v>100388</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126617</v>
+        <v>125561</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6833742079281414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6031835241460002</v>
+        <v>0.6042978019786642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7621872255064737</v>
+        <v>0.7558324503874626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>527</v>
@@ -3051,19 +3051,19 @@
         <v>550472</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>528140</v>
+        <v>527937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>569171</v>
+        <v>571434</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8000635104497335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7676056423210272</v>
+        <v>0.7673095416545717</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8272397870269774</v>
+        <v>0.8305286403888031</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>190719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167074</v>
+        <v>166936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>217727</v>
+        <v>218398</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1658944697746836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1453273491634781</v>
+        <v>0.1452074290501645</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1893878550388867</v>
+        <v>0.1899708263340542</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -3176,19 +3176,19 @@
         <v>161784</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139411</v>
+        <v>138317</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186331</v>
+        <v>187324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1958936667698438</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1688038192134225</v>
+        <v>0.1674787907262314</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2256160473487383</v>
+        <v>0.2268184802524656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>333</v>
@@ -3197,19 +3197,19 @@
         <v>352502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>320213</v>
+        <v>316209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389085</v>
+        <v>389865</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1784358183522473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1620909427554494</v>
+        <v>0.1600642706682844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1969538518332177</v>
+        <v>0.197348534535943</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>958919</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>931911</v>
+        <v>931240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>982564</v>
+        <v>982702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8341055302253164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8106121449611133</v>
+        <v>0.8100291736659458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8546726508365222</v>
+        <v>0.8547925709498355</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>653</v>
@@ -3247,19 +3247,19 @@
         <v>664092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639545</v>
+        <v>638552</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>686465</v>
+        <v>687559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8041063332301561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7743839526512617</v>
+        <v>0.7731815197475347</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8311961807865775</v>
+        <v>0.8325212092737686</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1568</v>
@@ -3268,19 +3268,19 @@
         <v>1623012</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1586429</v>
+        <v>1585649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1655301</v>
+        <v>1659305</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8215641816477528</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8030461481667824</v>
+        <v>0.8026514654640569</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8379090572445507</v>
+        <v>0.8399357293317156</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>125543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105509</v>
+        <v>104673</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147430</v>
+        <v>144618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2022587362862392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1699829101525415</v>
+        <v>0.16863550949495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2375191652096181</v>
+        <v>0.2329902146193601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>228</v>
@@ -3393,19 +3393,19 @@
         <v>250712</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>225406</v>
+        <v>226560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>277336</v>
+        <v>279374</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3396056530059028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3053275060021377</v>
+        <v>0.3068898274689447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.375670170927683</v>
+        <v>0.3784303180348306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>357</v>
@@ -3414,19 +3414,19 @@
         <v>376255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>344158</v>
+        <v>341912</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411634</v>
+        <v>410783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2768718966034705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2532530527858528</v>
+        <v>0.2516001031266649</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3029055665419956</v>
+        <v>0.3022796366858659</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>495163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>473276</v>
+        <v>476088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>515197</v>
+        <v>516033</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7977412637137608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7624808347903819</v>
+        <v>0.7670097853806398</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8300170898474584</v>
+        <v>0.8313644905050499</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>471</v>
@@ -3464,19 +3464,19 @@
         <v>487532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>460908</v>
+        <v>458870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>512838</v>
+        <v>511684</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6603943469940972</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.624329829072317</v>
+        <v>0.6215696819651695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6946724939978624</v>
+        <v>0.6931101725310553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>939</v>
@@ -3485,19 +3485,19 @@
         <v>982695</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>947316</v>
+        <v>948167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1014792</v>
+        <v>1017038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7231281033965296</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6970944334580044</v>
+        <v>0.6977203633141342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7467469472141471</v>
+        <v>0.7483998968733352</v>
       </c>
     </row>
     <row r="18">
@@ -3589,19 +3589,19 @@
         <v>8056</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3859</v>
+        <v>3959</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15422</v>
+        <v>15430</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02805680480376297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01343833771187818</v>
+        <v>0.01378903389683616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05370832250479722</v>
+        <v>0.0537369420909018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>292</v>
@@ -3610,19 +3610,19 @@
         <v>339367</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>309204</v>
+        <v>308378</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>373049</v>
+        <v>373479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3136402918953415</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2857646540924509</v>
+        <v>0.2850007407987075</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3447689563608575</v>
+        <v>0.3451668317924016</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>300</v>
@@ -3631,19 +3631,19 @@
         <v>347423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>313396</v>
+        <v>312419</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>378299</v>
+        <v>384101</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2537471358006554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2288948206686735</v>
+        <v>0.2281812768020428</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2762980987262004</v>
+        <v>0.2805360144677837</v>
       </c>
     </row>
     <row r="20">
@@ -3660,19 +3660,19 @@
         <v>279089</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>271723</v>
+        <v>271715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283286</v>
+        <v>283186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9719431951962371</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9462916774952028</v>
+        <v>0.9462630579090981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9865616622881218</v>
+        <v>0.9862109661031638</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>700</v>
@@ -3681,19 +3681,19 @@
         <v>742658</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>708976</v>
+        <v>708546</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>772821</v>
+        <v>773647</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6863597081046585</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6552310436391424</v>
+        <v>0.6548331682075983</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7142353459075484</v>
+        <v>0.7149992592012924</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>964</v>
@@ -3702,19 +3702,19 @@
         <v>1021747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>990871</v>
+        <v>985069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1055774</v>
+        <v>1056751</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7462528641993446</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7237019012737996</v>
+        <v>0.7194639855322164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7711051793313265</v>
+        <v>0.7718187231979572</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>506527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>466554</v>
+        <v>465609</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>549996</v>
+        <v>551859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1496067452246184</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1378005648377789</v>
+        <v>0.1375213265814555</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1624456688281898</v>
+        <v>0.1629958176528174</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>800</v>
@@ -3827,19 +3827,19 @@
         <v>905872</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>857544</v>
+        <v>854131</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>961755</v>
+        <v>958894</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.256505129487146</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2428205980560732</v>
+        <v>0.2418541818624275</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2723286244704599</v>
+        <v>0.2715185262866774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1299</v>
@@ -3848,19 +3848,19 @@
         <v>1412399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1348237</v>
+        <v>1341553</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1486450</v>
+        <v>1481347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2041830839342021</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1949075068581169</v>
+        <v>0.1939411964224365</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2148881399682744</v>
+        <v>0.214150502972602</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>2879195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2835726</v>
+        <v>2833863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2919168</v>
+        <v>2920113</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8503932547753815</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8375543311718106</v>
+        <v>0.8370041823471827</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8621994351622212</v>
+        <v>0.8624786734185446</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2526</v>
@@ -3898,19 +3898,19 @@
         <v>2625724</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2569841</v>
+        <v>2572702</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2674052</v>
+        <v>2677465</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.743494870512854</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7276713755295395</v>
+        <v>0.7284814737133226</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7571794019439264</v>
+        <v>0.7581458181375724</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5251</v>
@@ -3919,19 +3919,19 @@
         <v>5504919</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5430868</v>
+        <v>5435971</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5569081</v>
+        <v>5575765</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.795816916065798</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7851118600317268</v>
+        <v>0.785849497027398</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8050924931418835</v>
+        <v>0.8060588035775637</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>73878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59215</v>
+        <v>60212</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90782</v>
+        <v>91429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1341729304178781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1075424163164645</v>
+        <v>0.1093530780444327</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1648734869604186</v>
+        <v>0.1660476210073648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -4286,19 +4286,19 @@
         <v>114492</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99200</v>
+        <v>99095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132028</v>
+        <v>131061</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2344168150652163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2031086447254774</v>
+        <v>0.2028920281422308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2703205971526048</v>
+        <v>0.2683423267066715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>254</v>
@@ -4307,19 +4307,19 @@
         <v>188370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165054</v>
+        <v>167489</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210514</v>
+        <v>211414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1812940380435518</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1588539639364473</v>
+        <v>0.1611980352645218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2026066622584324</v>
+        <v>0.2034721882437406</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>476740</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>459836</v>
+        <v>459189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491403</v>
+        <v>490406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.865827069582122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8351265130395813</v>
+        <v>0.8339523789926353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8924575836835353</v>
+        <v>0.8906469219555675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>518</v>
@@ -4357,19 +4357,19 @@
         <v>373919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>356383</v>
+        <v>357350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389211</v>
+        <v>389316</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7655831849347838</v>
+        <v>0.7655831849347837</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7296794028473959</v>
+        <v>0.7316576732933285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7968913552745228</v>
+        <v>0.7971079718577695</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>986</v>
@@ -4378,19 +4378,19 @@
         <v>850659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>828515</v>
+        <v>827615</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>873975</v>
+        <v>871540</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8187059619564482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7973933377415681</v>
+        <v>0.7965278117562598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.841146036063553</v>
+        <v>0.8388019647354783</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>71967</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58335</v>
+        <v>57245</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87709</v>
+        <v>87821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1489339970165603</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1207231644244767</v>
+        <v>0.1184685288320096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1815117409666382</v>
+        <v>0.1817442538819625</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>176</v>
@@ -4503,19 +4503,19 @@
         <v>116605</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100690</v>
+        <v>101861</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132837</v>
+        <v>132619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2755679732146925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2379569621778781</v>
+        <v>0.240724169495884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3139281548076848</v>
+        <v>0.3134145482634503</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>260</v>
@@ -4524,19 +4524,19 @@
         <v>188571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168071</v>
+        <v>169449</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>211269</v>
+        <v>210794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2080546087588334</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1854361713796576</v>
+        <v>0.1869563878801706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.233096983247982</v>
+        <v>0.2325729712668527</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>411245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>395503</v>
+        <v>395391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>424877</v>
+        <v>425967</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8510660029834397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8184882590333618</v>
+        <v>0.8182557461180375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8792768355755233</v>
+        <v>0.8815314711679906</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>414</v>
@@ -4574,19 +4574,19 @@
         <v>306538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290306</v>
+        <v>290524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322453</v>
+        <v>321282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7244320267853075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6860718451923155</v>
+        <v>0.6865854517365501</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7620430378221219</v>
+        <v>0.759275830504116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>811</v>
@@ -4595,19 +4595,19 @@
         <v>717784</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>695086</v>
+        <v>695561</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>738284</v>
+        <v>736906</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7919453912411666</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7669030167520179</v>
+        <v>0.7674270287331473</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8145638286203422</v>
+        <v>0.8130436121198293</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>85708</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71484</v>
+        <v>70675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102599</v>
+        <v>102715</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1817335907087573</v>
+        <v>0.1817335907087572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1515743018139312</v>
+        <v>0.1498579652477292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.217548584088817</v>
+        <v>0.2177958930459983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -4720,19 +4720,19 @@
         <v>72605</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61411</v>
+        <v>62717</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83627</v>
+        <v>83948</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3872352460793012</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3275320952872303</v>
+        <v>0.3344954995946985</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4460181066033085</v>
+        <v>0.4477310726378027</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -4741,19 +4741,19 @@
         <v>158313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138911</v>
+        <v>139448</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177977</v>
+        <v>180013</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2401928173851865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2107555667381975</v>
+        <v>0.2115707501359499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2700262594923064</v>
+        <v>0.2731159868145059</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>385904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>369013</v>
+        <v>368897</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400128</v>
+        <v>400937</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8182664092912427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7824514159111834</v>
+        <v>0.7822041069540017</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8484256981860688</v>
+        <v>0.8501420347522707</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>174</v>
@@ -4791,19 +4791,19 @@
         <v>114892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103870</v>
+        <v>103549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126086</v>
+        <v>124780</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6127647539206988</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5539818933966915</v>
+        <v>0.5522689273621972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6724679047127697</v>
+        <v>0.6655045004053013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>559</v>
@@ -4812,19 +4812,19 @@
         <v>500796</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>481132</v>
+        <v>479096</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>520198</v>
+        <v>519661</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7598071826148136</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7299737405076936</v>
+        <v>0.726884013185494</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7892444332618027</v>
+        <v>0.7884292498640502</v>
       </c>
     </row>
     <row r="12">
@@ -4916,19 +4916,19 @@
         <v>249865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>219691</v>
+        <v>225044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>276968</v>
+        <v>279372</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2207595776264291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1941003847383194</v>
+        <v>0.1988292920310011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2447050752355387</v>
+        <v>0.2468295408870081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>394</v>
@@ -4937,19 +4937,19 @@
         <v>249032</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>223860</v>
+        <v>226380</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>272573</v>
+        <v>272476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2891649575062321</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2599360850223803</v>
+        <v>0.2628625795992947</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3164991237852661</v>
+        <v>0.3163876038514091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>690</v>
@@ -4958,19 +4958,19 @@
         <v>498897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>466199</v>
+        <v>464162</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>537444</v>
+        <v>539559</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.250317978092862</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2339120190626687</v>
+        <v>0.2328898499950653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2696587415754768</v>
+        <v>0.2707199092079527</v>
       </c>
     </row>
     <row r="14">
@@ -4987,19 +4987,19 @@
         <v>881978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854875</v>
+        <v>852471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>912152</v>
+        <v>906799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7792404223735709</v>
+        <v>0.7792404223735708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7552949247644616</v>
+        <v>0.7531704591129919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8058996152616812</v>
+        <v>0.8011707079689989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>836</v>
@@ -5008,19 +5008,19 @@
         <v>612179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>588638</v>
+        <v>588735</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>637351</v>
+        <v>634831</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7108350424937679</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6835008762147339</v>
+        <v>0.6836123961485909</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7400639149776197</v>
+        <v>0.7371374204007055</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1658</v>
@@ -5029,19 +5029,19 @@
         <v>1494157</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1455610</v>
+        <v>1453495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1526855</v>
+        <v>1528892</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.749682021907138</v>
+        <v>0.7496820219071381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7303412584245231</v>
+        <v>0.7292800907920474</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7660879809373313</v>
+        <v>0.7671101500049347</v>
       </c>
     </row>
     <row r="15">
@@ -5133,19 +5133,19 @@
         <v>121924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103689</v>
+        <v>104348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142961</v>
+        <v>141301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2146683240698474</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1825619814801846</v>
+        <v>0.183723647270987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2517071468066608</v>
+        <v>0.2487847715799799</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>572</v>
@@ -5154,19 +5154,19 @@
         <v>330419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>304872</v>
+        <v>305552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352015</v>
+        <v>353291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3976882986351781</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3669402353097753</v>
+        <v>0.3677578761023886</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4236807943042676</v>
+        <v>0.4252167759874435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>712</v>
@@ -5175,19 +5175,19 @@
         <v>452343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>421028</v>
+        <v>424367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>482342</v>
+        <v>485333</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3233762663336313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3009889099871661</v>
+        <v>0.303375996831006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3448221695170319</v>
+        <v>0.3469602591622754</v>
       </c>
     </row>
     <row r="17">
@@ -5204,19 +5204,19 @@
         <v>446040</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>425003</v>
+        <v>426663</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>464275</v>
+        <v>463616</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7853316759301526</v>
+        <v>0.7853316759301525</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7482928531933396</v>
+        <v>0.7512152284200201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8174380185198155</v>
+        <v>0.8162763527290129</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>718</v>
@@ -5225,19 +5225,19 @@
         <v>500431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>478835</v>
+        <v>477559</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>525978</v>
+        <v>525298</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6023117013648219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5763192056957324</v>
+        <v>0.5747832240125565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6330597646902246</v>
+        <v>0.6322421238976114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1125</v>
@@ -5246,19 +5246,19 @@
         <v>946471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>916472</v>
+        <v>913481</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>977786</v>
+        <v>974447</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6766237336663687</v>
+        <v>0.6766237336663686</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6551778304829681</v>
+        <v>0.6530397408377248</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.699011090012834</v>
+        <v>0.6966240031689941</v>
       </c>
     </row>
     <row r="18">
@@ -5350,19 +5350,19 @@
         <v>23268</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13129</v>
+        <v>12853</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41415</v>
+        <v>40288</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09808386866678261</v>
+        <v>0.09808386866678262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05534463901834329</v>
+        <v>0.05417825788216455</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1745770099275942</v>
+        <v>0.1698275056565095</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>489</v>
@@ -5371,19 +5371,19 @@
         <v>301311</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>275305</v>
+        <v>276563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>326544</v>
+        <v>326312</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3568848577378345</v>
+        <v>0.3568848577378346</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3260816883972171</v>
+        <v>0.3275718058034268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3867713928697788</v>
+        <v>0.3864964224083406</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>505</v>
@@ -5392,19 +5392,19 @@
         <v>324579</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294944</v>
+        <v>297321</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>354856</v>
+        <v>356926</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3001171463183765</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2727153044876348</v>
+        <v>0.2749132517152982</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3281119495683901</v>
+        <v>0.3300262019624589</v>
       </c>
     </row>
     <row r="20">
@@ -5421,19 +5421,19 @@
         <v>213960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>195813</v>
+        <v>196940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224099</v>
+        <v>224375</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9019161313332175</v>
+        <v>0.9019161313332172</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.825422990072406</v>
+        <v>0.8301724943434908</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9446553609816567</v>
+        <v>0.9458217421178355</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>670</v>
@@ -5442,19 +5442,19 @@
         <v>542970</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>517737</v>
+        <v>517969</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>568976</v>
+        <v>567718</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6431151422621655</v>
+        <v>0.6431151422621656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6132286071302209</v>
+        <v>0.6135035775916594</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6739183116027826</v>
+        <v>0.6724281941965732</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>766</v>
@@ -5463,19 +5463,19 @@
         <v>756930</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>726653</v>
+        <v>724583</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>786565</v>
+        <v>784188</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6998828536816236</v>
+        <v>0.6998828536816237</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6718880504316099</v>
+        <v>0.669973798037541</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7272846955123652</v>
+        <v>0.7250867482847018</v>
       </c>
     </row>
     <row r="21">
@@ -5567,19 +5567,19 @@
         <v>626610</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>584238</v>
+        <v>583874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>676695</v>
+        <v>676106</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1820229355882527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1697143854786912</v>
+        <v>0.169608615673925</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1965721864241634</v>
+        <v>0.1964010654666688</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1914</v>
@@ -5588,19 +5588,19 @@
         <v>1184464</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1135413</v>
+        <v>1136663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1228626</v>
+        <v>1236586</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3258146651707615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3123220628396937</v>
+        <v>0.312665735981226</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3379622380068091</v>
+        <v>0.3401518262700675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2639</v>
@@ -5609,19 +5609,19 @@
         <v>1811074</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1749166</v>
+        <v>1747637</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1878007</v>
+        <v>1883100</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2558784223260291</v>
+        <v>0.255878422326029</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2471317186656213</v>
+        <v>0.2469157142605178</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2653350324176699</v>
+        <v>0.266054696953078</v>
       </c>
     </row>
     <row r="23">
@@ -5638,19 +5638,19 @@
         <v>2815866</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2765781</v>
+        <v>2766370</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2858238</v>
+        <v>2858602</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8179770644117473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8034278135758366</v>
+        <v>0.8035989345333312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8302856145213087</v>
+        <v>0.830391384326075</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3330</v>
@@ -5659,19 +5659,19 @@
         <v>2450929</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2406767</v>
+        <v>2398807</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2499980</v>
+        <v>2498730</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6741853348292386</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6620377619931908</v>
+        <v>0.6598481737299325</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6876779371603063</v>
+        <v>0.687334264018774</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5905</v>
@@ -5680,19 +5680,19 @@
         <v>5266795</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5199862</v>
+        <v>5194769</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5328703</v>
+        <v>5330232</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7441215776739708</v>
+        <v>0.7441215776739709</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.73466496758233</v>
+        <v>0.7339453030469221</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7528682813343787</v>
+        <v>0.7530842857394823</v>
       </c>
     </row>
     <row r="24">
